--- a/stage_1/Conditional_Formatting/Conditional_formatting.xlsx
+++ b/stage_1/Conditional_Formatting/Conditional_formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Conditional_Formatting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD501DD8-EFD2-4A0C-9604-06360C289288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E773A2A6-7750-4778-9B07-5BDD26137EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
   <si>
     <t>Employee ID</t>
   </si>
@@ -318,36 +318,6 @@
     <t>Felix Okafor</t>
   </si>
   <si>
-    <t>E046</t>
-  </si>
-  <si>
-    <t>Blessing Uche</t>
-  </si>
-  <si>
-    <t>E047</t>
-  </si>
-  <si>
-    <t>Danjuma Bello</t>
-  </si>
-  <si>
-    <t>E048</t>
-  </si>
-  <si>
-    <t>Patricia Obi</t>
-  </si>
-  <si>
-    <t>E049</t>
-  </si>
-  <si>
-    <t>Michael John</t>
-  </si>
-  <si>
-    <t>E050</t>
-  </si>
-  <si>
-    <t>Janet Oladipo</t>
-  </si>
-  <si>
     <t>Conditional Rules</t>
   </si>
   <si>
@@ -367,6 +337,12 @@
   </si>
   <si>
     <t>6. Highlight employees who have worked for more than 5 years</t>
+  </si>
+  <si>
+    <t>7. Highlight names that contain the letter “a”</t>
+  </si>
+  <si>
+    <t>8. Highlight employees whose start date is before 2018</t>
   </si>
 </sst>
 </file>
@@ -420,7 +396,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -429,6 +422,60 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.499984740745262"/>
@@ -472,13 +519,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1298,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1329,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1349,7 +1389,7 @@
         <v>42500</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1369,7 +1409,7 @@
         <v>43480</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1389,7 +1429,7 @@
         <v>42979</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1409,7 +1449,7 @@
         <v>42083</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1429,7 +1469,7 @@
         <v>44389</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1449,7 +1489,7 @@
         <v>43427</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1468,6 +1508,9 @@
       <c r="E8" s="1">
         <v>43996</v>
       </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1485,6 +1528,9 @@
       <c r="E9" s="1">
         <v>41688</v>
       </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
@@ -2110,110 +2156,25 @@
         <v>41587</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50">
-        <v>97000</v>
-      </c>
-      <c r="E50" s="1">
-        <v>43599</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>83000</v>
-      </c>
-      <c r="E51" s="1">
-        <v>42943</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>122000</v>
-      </c>
-      <c r="E52" s="1">
-        <v>41930</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53">
-        <v>139000</v>
-      </c>
-      <c r="E53" s="1">
-        <v>42341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54">
-        <v>99000</v>
-      </c>
-      <c r="E54" s="1">
-        <v>42612</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C54">
-    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="HR">
+  <conditionalFormatting sqref="C2:C49">
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="HR">
       <formula>NOT(ISERROR(SEARCH("HR",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="HR">
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="HR">
       <formula>NOT(ISERROR(SEARCH("HR",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>"""HR"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
       <formula>100000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D20">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2223,7 +2184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D30">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2237,7 +2198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D40">
-    <cfRule type="iconSet" priority="7">
+    <cfRule type="iconSet" priority="9">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="90000"/>
@@ -2246,8 +2207,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A49">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula xml:space="preserve"> DATEDIF($E41, TODAY(), "y") &gt; 5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B19">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="a">
+      <formula>NOT(ISERROR(SEARCH("a",B11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A9">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula xml:space="preserve"> DATEDIF($E41, TODAY(), "y") &gt; 5</formula>
+      <formula xml:space="preserve"> YEAR($E2) &lt; 2018</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
